--- a/SchedulingData/dynamic16/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_17.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.12</v>
+        <v>214.7</v>
       </c>
       <c r="D2" t="n">
-        <v>287.78</v>
+        <v>262.52</v>
       </c>
       <c r="E2" t="n">
-        <v>10.872</v>
+        <v>9.948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213.86</v>
+        <v>262.52</v>
       </c>
       <c r="D3" t="n">
-        <v>273.46</v>
+        <v>324.22</v>
       </c>
       <c r="E3" t="n">
-        <v>11.004</v>
+        <v>6.408</v>
       </c>
     </row>
     <row r="4">
@@ -504,112 +504,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>246.2</v>
+        <v>215.86</v>
       </c>
       <c r="D4" t="n">
-        <v>308.74</v>
+        <v>295.22</v>
       </c>
       <c r="E4" t="n">
-        <v>12.296</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>308.74</v>
+        <v>260.22</v>
       </c>
       <c r="D5" t="n">
-        <v>369.28</v>
+        <v>326.26</v>
       </c>
       <c r="E5" t="n">
-        <v>7.872</v>
+        <v>10.024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>287.78</v>
+        <v>220.18</v>
       </c>
       <c r="D6" t="n">
-        <v>349.08</v>
+        <v>276.04</v>
       </c>
       <c r="E6" t="n">
-        <v>6.852</v>
+        <v>12.076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>236.24</v>
+        <v>326.26</v>
       </c>
       <c r="D7" t="n">
-        <v>286.54</v>
+        <v>384.58</v>
       </c>
       <c r="E7" t="n">
-        <v>10.156</v>
+        <v>6.812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>215.18</v>
+        <v>384.58</v>
       </c>
       <c r="D8" t="n">
-        <v>284.48</v>
+        <v>433.38</v>
       </c>
       <c r="E8" t="n">
-        <v>16.092</v>
+        <v>3.572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>284.48</v>
+        <v>276.04</v>
       </c>
       <c r="D9" t="n">
-        <v>350.3</v>
+        <v>318.02</v>
       </c>
       <c r="E9" t="n">
-        <v>11.62</v>
+        <v>9.007999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>211.1</v>
+        <v>433.38</v>
       </c>
       <c r="D10" t="n">
-        <v>263.3</v>
+        <v>471.18</v>
       </c>
       <c r="E10" t="n">
-        <v>15.18</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>349.08</v>
+        <v>471.18</v>
       </c>
       <c r="D11" t="n">
-        <v>404.94</v>
+        <v>570.62</v>
       </c>
       <c r="E11" t="n">
-        <v>3.396</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>369.28</v>
+        <v>318.02</v>
       </c>
       <c r="D12" t="n">
-        <v>428.74</v>
+        <v>360.42</v>
       </c>
       <c r="E12" t="n">
-        <v>3.056</v>
+        <v>6.888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>263.3</v>
+        <v>360.42</v>
       </c>
       <c r="D13" t="n">
-        <v>347.1</v>
+        <v>416.62</v>
       </c>
       <c r="E13" t="n">
-        <v>10.38</v>
+        <v>4.368</v>
       </c>
     </row>
     <row r="14">
@@ -694,212 +694,212 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>286.54</v>
+        <v>243.24</v>
       </c>
       <c r="D14" t="n">
-        <v>350.9</v>
+        <v>288.14</v>
       </c>
       <c r="E14" t="n">
-        <v>5.84</v>
+        <v>13.796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>350.3</v>
+        <v>324.22</v>
       </c>
       <c r="D15" t="n">
-        <v>427.8</v>
+        <v>386.9</v>
       </c>
       <c r="E15" t="n">
-        <v>7.98</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>273.46</v>
+        <v>386.9</v>
       </c>
       <c r="D16" t="n">
-        <v>334.56</v>
+        <v>465.08</v>
       </c>
       <c r="E16" t="n">
-        <v>6.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>334.56</v>
+        <v>288.14</v>
       </c>
       <c r="D17" t="n">
-        <v>373.58</v>
+        <v>349.24</v>
       </c>
       <c r="E17" t="n">
-        <v>3.752</v>
+        <v>9.316000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>350.9</v>
+        <v>234.1</v>
       </c>
       <c r="D18" t="n">
-        <v>399.64</v>
+        <v>310.8</v>
       </c>
       <c r="E18" t="n">
-        <v>2.096</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>399.64</v>
+        <v>295.22</v>
       </c>
       <c r="D19" t="n">
-        <v>482.25</v>
+        <v>360.42</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>8.768000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>482.25</v>
+        <v>465.08</v>
       </c>
       <c r="D20" t="n">
-        <v>534.95</v>
+        <v>513.38</v>
       </c>
       <c r="E20" t="n">
-        <v>27.88</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>534.95</v>
+        <v>570.62</v>
       </c>
       <c r="D21" t="n">
-        <v>576.75</v>
+        <v>635.64</v>
       </c>
       <c r="E21" t="n">
-        <v>24.34</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>347.1</v>
+        <v>416.62</v>
       </c>
       <c r="D22" t="n">
-        <v>409.9</v>
+        <v>465.58</v>
       </c>
       <c r="E22" t="n">
-        <v>6.74</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>427.8</v>
+        <v>465.58</v>
       </c>
       <c r="D23" t="n">
-        <v>483</v>
+        <v>542.26</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>576.75</v>
+        <v>635.64</v>
       </c>
       <c r="D24" t="n">
-        <v>631.73</v>
+        <v>682.9400000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>20.952</v>
+        <v>22.088</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -907,181 +907,181 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>404.94</v>
+        <v>310.8</v>
       </c>
       <c r="D25" t="n">
-        <v>458.16</v>
+        <v>354.32</v>
       </c>
       <c r="E25" t="n">
-        <v>0.184</v>
+        <v>8.327999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>458.16</v>
+        <v>360.42</v>
       </c>
       <c r="D26" t="n">
-        <v>534.79</v>
+        <v>416.92</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>4.748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>428.74</v>
+        <v>349.24</v>
       </c>
       <c r="D27" t="n">
-        <v>524.13</v>
+        <v>398.94</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>524.13</v>
+        <v>542.26</v>
       </c>
       <c r="D28" t="n">
-        <v>615.35</v>
+        <v>591.6799999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>25.528</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>534.79</v>
+        <v>398.94</v>
       </c>
       <c r="D29" t="n">
-        <v>592.79</v>
+        <v>458.24</v>
       </c>
       <c r="E29" t="n">
-        <v>27.36</v>
+        <v>3.156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>373.58</v>
+        <v>354.32</v>
       </c>
       <c r="D30" t="n">
-        <v>447.78</v>
+        <v>445.48</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>5.292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>447.78</v>
+        <v>458.24</v>
       </c>
       <c r="D31" t="n">
-        <v>515.96</v>
+        <v>516.8</v>
       </c>
       <c r="E31" t="n">
-        <v>25.352</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>409.9</v>
+        <v>516.8</v>
       </c>
       <c r="D32" t="n">
-        <v>472.64</v>
+        <v>592.8</v>
       </c>
       <c r="E32" t="n">
-        <v>4.056</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>472.64</v>
+        <v>445.48</v>
       </c>
       <c r="D33" t="n">
-        <v>559.4400000000001</v>
+        <v>526.14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.456</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>559.4400000000001</v>
+        <v>526.14</v>
       </c>
       <c r="D34" t="n">
-        <v>635.53</v>
+        <v>614.17</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,26 +1089,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>483</v>
+        <v>416.92</v>
       </c>
       <c r="D35" t="n">
-        <v>524.6</v>
+        <v>485.56</v>
       </c>
       <c r="E35" t="n">
-        <v>1.08</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>524.6</v>
+        <v>485.56</v>
       </c>
       <c r="D36" t="n">
-        <v>594.4400000000001</v>
+        <v>570.35</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
@@ -1127,211 +1127,211 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>592.79</v>
+        <v>570.35</v>
       </c>
       <c r="D37" t="n">
-        <v>640.35</v>
+        <v>611.15</v>
       </c>
       <c r="E37" t="n">
-        <v>24.224</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>515.96</v>
+        <v>592.8</v>
       </c>
       <c r="D38" t="n">
-        <v>570.26</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>22.052</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>594.4400000000001</v>
+        <v>591.6799999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>651.8</v>
+        <v>663.48</v>
       </c>
       <c r="E39" t="n">
-        <v>25.944</v>
+        <v>24.148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>615.35</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>671.95</v>
+        <v>722.58</v>
       </c>
       <c r="E40" t="n">
-        <v>21.988</v>
+        <v>22.292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>640.35</v>
+        <v>682.9400000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>692.11</v>
+        <v>750.74</v>
       </c>
       <c r="E41" t="n">
-        <v>21.188</v>
+        <v>18.448</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>692.11</v>
+        <v>611.15</v>
       </c>
       <c r="D42" t="n">
-        <v>745.67</v>
+        <v>652.75</v>
       </c>
       <c r="E42" t="n">
-        <v>18.432</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>651.8</v>
+        <v>513.38</v>
       </c>
       <c r="D43" t="n">
-        <v>713.04</v>
+        <v>585.64</v>
       </c>
       <c r="E43" t="n">
-        <v>22.92</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>570.26</v>
+        <v>585.64</v>
       </c>
       <c r="D44" t="n">
-        <v>629.96</v>
+        <v>658.4400000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>19.192</v>
+        <v>18.544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>629.96</v>
+        <v>658.4400000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>706.66</v>
+        <v>701.04</v>
       </c>
       <c r="E45" t="n">
-        <v>15.592</v>
+        <v>15.904</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>635.53</v>
+        <v>663.48</v>
       </c>
       <c r="D46" t="n">
-        <v>695.41</v>
+        <v>711.62</v>
       </c>
       <c r="E46" t="n">
-        <v>26.192</v>
+        <v>21.464</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>671.95</v>
+        <v>614.17</v>
       </c>
       <c r="D47" t="n">
-        <v>719.03</v>
+        <v>676.27</v>
       </c>
       <c r="E47" t="n">
-        <v>18.92</v>
+        <v>26.46</v>
       </c>
     </row>
   </sheetData>
